--- a/Online Store OM Resources/OnlineStore_Dataset_2_With_spaces.xlsx
+++ b/Online Store OM Resources/OnlineStore_Dataset_2_With_spaces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Online Store OM Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE22645-F855-254A-BA10-B8E2BC532633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADE3E2E-1192-DD4A-909E-F27CD094A86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1540" windowWidth="27640" windowHeight="15880" xr2:uid="{F7A59549-B4DC-C44B-AD10-C9056DC1E5D2}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="27640" windowHeight="15880" xr2:uid="{F7A59549-B4DC-C44B-AD10-C9056DC1E5D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="126">
   <si>
     <t>OM_Regular</t>
   </si>
@@ -60,6 +60,360 @@
   </si>
   <si>
     <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol8.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol8.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol1.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol1.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol8.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol8.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol1.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_ProductsGuestAssociation_GuestId_idx`(`GuestId`),PRIMARYKEY(`ProductsId`,`GuestId`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol1.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_ProductsGuestAssociation_GuestId_idx`(`GuestId`),PRIMARYKEY(`ProductsId`,`GuestId`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_ProductsGuestAssociation_GuestId_idx`(`GuestId`),PRIMARYKEY(`ProductsId`,`GuestId`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_ProductsGuestAssociation_GuestId_idx`(`GuestId`),PRIMARYKEY(`ProductsId`,`GuestId`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE​,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_ProductsGuestAssociation_GuestId_idx`(`GuestId`),PRIMARYKEY(`ProductsId`,`GuestId`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_ProductsGuestAssociation_GuestId_idx`(`GuestId`),PRIMARYKEY(`ProductsId`,`GuestId`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_ProductsGuestAssociation_GuestId_idx`(`GuestId`),PRIMARYKEY(`ProductsId`,`GuestId`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_ProductsGuestAssociation_GuestId_idx`(`GuestId`),PRIMARYKEY(`ProductsId`,`GuestId`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol8.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_ProductsGuestAssociation_GuestId_idx`(`GuestId`),PRIMARYKEY(`ProductsId`,`GuestId`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol8.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_ProductsGuestAssociation_GuestId_idx`(`GuestId`),PRIMARYKEY(`ProductsId`,`GuestId`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_ProductsGuestAssociation_GuestId_idx`(`GuestId`),PRIMARYKEY(`ProductsId`,`GuestId`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_ProductsGuestAssociation_GuestId_idx`(`GuestId`),PRIMARYKEY(`ProductsId`,`GuestId`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_ProductsGuestAssociation_GuestId_idx`(`GuestId`),PRIMARYKEY(`ProductsId`,`GuestId`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_ProductsGuestAssociation_GuestId_idx`(`GuestId`),PRIMARYKEY(`ProductsId`,`GuestId`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_ProductsGuestAssociation_GuestId_idx`(`GuestId`),PRIMARYKEY(`ProductsId`,`GuestId`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_ProductsGuestAssociation_GuestId_idx`(`GuestId`),PRIMARYKEY(`ProductsId`,`GuestId`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol1.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol1.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE​,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol8.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol8.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE​,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE​,P</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol1.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol1.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE​,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE​,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol8.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol8.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,FK_class5_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol1.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_Products_GuestId`FOREIGNKEY(`GuestId`)REFERENCES`Guest`(`GuestId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol1.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_Products_GuestId`FOREIGNKEY(`GuestId`)REFERENCES`Guest`(`GuestId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_Products_GuestId`FOREIGNKEY(`GuestId`)REFERENCES`Guest`(`GuestId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_Products_GuestId`FOREIGNKEY(`GuestId`)REFERENCES`Guest`(`GuestId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_Products_GuestId`FOREIGNKEY(`GuestId`)REFERENCES`Guest`(`GuestId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE​</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_Products_GuestId`FOREIGNKEY(`GuestId`)REFERENCES`Guest`(`GuestId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE​,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_Products_GuestId`FOREIGNKEY(`GuestId`)REFERENCES`Guest`(`GuestId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_Products_GuestId`FOREIGNKEY(`GuestId`)REFERENCES`Guest`(`GuestId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol8.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_Products_GuestId`FOREIGNKEY(`GuestId`)REFERENCES`Guest`(`GuestId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol8.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_Products_GuestId`FOREIGNKEY(`GuestId`)REFERENCES`Guest`(`GuestId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_Products_GuestId`FOREIGNKEY(`GuestId`)REFERENCES`Guest`(`GuestId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_Products_GuestId`FOREIGNKEY(`GuestId`)REFERENCES`Guest`(`GuestId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_Products_GuestId`FOREIGNKEY(`GuestId`)REFERENCES`Guest`(`GuestId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_Products_GuestId`FOREIGNKEY(`GuestId`)REFERENCES`Guest`(`GuestId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_Products_GuestId`FOREIGNKEY(`GuestId`)REFERENCES`Guest`(`GuestId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_type,FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_Products_GuestId`FOREIGNKEY(`GuestId`)REFERENCES`Guest`(`GuestId`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol1.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol1.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol8.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,EnterFileNametoGenerateAbstract:sol8.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,FK_class5_name_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2+c2_at3+c2_at4 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig c2_at3 extends c2_at3_type one sig c2_at4 extends c2_at4_type one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig class4_name extends Class attrSet = c4_at1 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig class5_name extends Class attrSet = c5_at1+c5_at2+c5_at3+c5_at4 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig c5_at3 extends c5_at3_type one sig c5_at4 extends c5_at4_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3+c6_at4 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig c6_at4 extends c6_at4_type one sig assoc1 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class1_name dst= class6_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc2 } one sig assoc5 extends Association src = class1_name dst= class3_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc2 } pred show run show for 38 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class2_name Attribute c2_at3: c2_at3_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at4: c3_at4_type Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class5_name Attribute c5_at3: c5_at3_type Table: class5_name Attribute c5_at4: c5_at4_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table: class6_name Attribute c6_at3: c6_at3_type Table: class6_name Attribute c6_at4: c6_at4_type Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name0 -- -- CREATE TABLE `assoc3` `c5_at1` c5_at1_type, `c4_at1` c4_at1_type, KEY `FK_assoc3_c5_at1_idx` (`c5_at1`), KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c5_at1`,`c4_at1`) ); -- -- CREATE TABLE `class5_name` ( `c5_at4` c5_at4_type(64) `c5_at3` c5_at3_type(64) `c1_at1` c1_at1_type, `c5_at1` c5_at1_type, `c1_at1` c1_at1_type, FK_class5_name_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c5_at1`) ); -- -- CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at4` c3_at4_type, `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); -- -- CREATE TABLE `class2_name` ( `c2_at3` c2_at3_type(64) `c2_at2` c2_at2_type(64) `c2_at4` c2_at4_type, `c2_at1` c2_at1_type, PRIMARY KEY (`c2_at1`) ); -- -- CREATE TABLE `class4_name` ( `c4_at1` c4_at1_type, PRIMARY KEY (`c4_at1`) ); -- -- CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type(64) `c1_at1` c1_at1_type, PRIMARY KEY (`c1_at1`) ); -- -- CREATE TABLE `assoc2` ( `c5_at1` c5_at1_type, `c2_at1` c2_at1_type, KEY `FK_assoc2_c5_at1_idx` (`c5_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c5_at1`,`c2_at1`) ); -- -- CREATE TABLE `assoc5` ( `c3_at1` c3_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_assoc5_c3_at1_idx` (`c3_at1`), KEY `FK_assoc5_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c3_at1`,`c2_at1`) ); -- -- CREATE TABLE `class6_name` ( `c6_at4` c6_at4_type, `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); -- -- CREATE TABLE `assoc4` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_assoc4_c6_at1_idx` (`c6_at1`), KEY `FK_assoc4_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc5_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2+c2_at3+c2_at4 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig c2_at3 extends c2_at3_type one sig c2_at4 extends c2_at4_type one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig class4_name extends Class attrSet = c4_at1 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig class5_name extends Class attrSet = c5_at1+c5_at2+c5_at3+c5_at4 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig c5_at3 extends c5_at3_type one sig c5_at4 extends c5_at4_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3+c6_at4 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig c6_at4 extends c6_at4_type one sig assoc1 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class1_name dst= class6_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc2 } one sig assoc5 extends Association src = class1_name dst= class3_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc2 } pred show run show for 38 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class2_name Attribute c2_at3: c2_at3_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at4: c3_at4_type Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class5_name Attribute c5_at3: c5_at3_type Table: class5_name Attribute c5_at4: c5_at4_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table: class6_name Attribute c6_at3: c6_at3_type Table: class6_name Attribute c6_at4: c6_at4_type Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name0 -- -- CREATE TABLE `assoc3` `c5_at1` c5_at1_type, `c4_at1` c4_at1_type, KEY `FK_assoc3_c5_at1_idx` (`c5_at1`), KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c5_at1`,`c4_at1`) ); -- -- CREATE TABLE `class5_name` ( `c5_at4` c5_at4_type(64) `c5_at3` c5_at3_type(64) `c1_at1` c1_at1_type, `c5_at1` c5_at1_type, `c1_at1` c1_at1_type, FK_class5_name_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c5_at1`) ); -- -- CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at4` c3_at4_type, `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); -- -- CREATE TABLE `class2_name` ( `c2_at3` c2_at3_type(64) `c2_at2` c2_at2_type(64) `c2_at4` c2_at4_type, `c2_at1` c2_at1_type, PRIMARY KEY (`c2_at1`) ); -- -- CREATE TABLE `class4_name` ( `c4_at1` c4_at1_type, PRIMARY KEY (`c4_at1`) ); -- -- CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type(64) `c1_at1` c1_at1_type, PRIMARY KEY (`c1_at1`) ); -- -- CREATE TABLE `assoc2` ( `c5_at1` c5_at1_type, `c2_at1` c2_at1_type, KEY `FK_assoc2_c5_at1_idx` (`c5_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c5_at1`,`c2_at1`) ); -- -- CREATE TABLE `assoc5` ( `c3_at1` c3_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_assoc5_c3_at1_idx` (`c3_at1`), KEY `FK_assoc5_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c3_at1`,`c2_at1`) ); -- -- CREATE TABLE `class6_name` ( `c6_at4` c6_at4_type, `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); -- -- CREATE TABLE `assoc4` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_assoc4_c6_at1_idx` (`c6_at1`), KEY `FK_assoc4_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc5_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38​,EnterFileNametoGenerateAbstract:sol1.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38​,EnterFileNametoGenerateAbstract:sol1.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38​,EnterFileNametoGenerateAbstract:sol8.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38​,EnterFileNametoGenerateAbstract:sol8.txtOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_nameopenDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2+c2_at3+c2_at4id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigc2_at3extendsc2_at3_typeonesigc2_at4extendsc2_at4_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2+c3_at3+c3_at4id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigc3_at3extendsc3_at3_typeonesigc3_at4extendsc3_at4_typeonesigclass4_nameextendsClassattrSet=c4_at1id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2+c5_at3+c5_at4id=c5_at1noparentisAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigc5_at3extendsc5_at3_typeonesigc5_at4extendsc5_at4_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3+c6_at4id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigc6_at4extendsc6_at4_typeonesigassoc1extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class1_namedst=class6_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}onesigassoc5extendsAssociationsrc=class1_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc2}predshowrunshowfor38,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class2_nameAttributec2_at3:c2_at3_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at4:c3_at4_typeTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class5_nameAttributec5_at3:c5_at3_typeTable:class5_nameAttributec5_at4:c5_at4_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTable:class6_nameAttributec6_at3:c6_at3_typeTable:class6_nameAttributec6_at4:c6_at4_typeTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2AssociationStrategyforassoc1:assoc_type1AssociationStrategyforassoc2:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2AssociationStrategyforassoc5:assoc_type2,USEOM_name0----CREATETABLE`assoc1`(`c5_at1`c5_at1_type,`c1_at1`c1_at1_type,KEY`FK_assoc1_c5_at1_idx`(`c5_at1`),KEY`FK_assoc1_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c5_at1`,`c1_at1`));----CREATETABLE`assoc3``c5_at1`c5_at1_type,`c4_at1`c4_at1_type,KEY`FK_assoc3_c5_at1_idx`(`c5_at1`),KEY`FK_assoc3_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c5_at1`,`c4_at1`));----CREATETABLE`class5_name`(`c5_at4`c5_at4_type(64)`c5_at3`c5_at3_type(64)`c1_at1`c1_at1_type,`c5_at1`c5_at1_type,PRIMARYKEY(`c5_at1`));----CREATETABLE`class3_name`(`c3_at3`c3_at3_type(64)`c3_at2`c3_at2_type(64)`c3_at4`c3_at4_type,`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));----CREATETABLE`class2_name`(`c2_at3`c2_at3_type(64)`c2_at2`c2_at2_type(64)`c2_at4`c2_at4_type,`c2_at1`c2_at1_type,PRIMARYKEY(`c2_at1`));----CREATETABLE`class4_name`(`c4_at1`c4_at1_type,PRIMARYKEY(`c4_at1`));----CREATETABLE`class1_name`(`c1_at2`c1_at2_type(64)`c1_at1`c1_at1_type,PRIMARYKEY(`c1_at1`));----CREATETABLE`class6_name`(`c6_at4`c6_at4_type,`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,PRIMARYKEY(`c6_at1`));----CREATETABLE`assoc2`(`c5_at1`c5_at1_type,`c2_at1`c2_at1_type,KEY`FK_assoc2_c5_at1_idx`(`c5_at1`),KEY`FK_assoc2_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c5_at1`,`c2_at1`));----CREATETABLE`assoc5`(`c3_at1`c3_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc5_c3_at1_idx`(`c3_at1`),KEY`FK_assoc5_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c3_at1`,`c2_at1`));----CREATETABLE`assoc4`(`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_assoc4_c6_at1_idx`(`c6_at1`),KEY`FK_assoc4_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`,`c2_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc3`ADDCONSTRAINT`FK_assoc3_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc3_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc2`ADDCONSTRAINT`FK_assoc2_c5_at1`FOREIGNKEY(`c5_at1`)REFERENCES`class5_name`(`c5_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc2_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,ALTERTABLE`assoc5`ADDCONSTRAINT`FK_assoc5_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc5_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE,NP</t>
   </si>
 </sst>
 </file>
@@ -411,15 +765,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F56446E-6155-F64F-A4AD-1500DE1FD567}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="107" customWidth="1"/>
+    <col min="1" max="1" width="135.1640625" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
   </cols>
   <sheetData>
@@ -455,6 +809,494 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
